--- a/Testdata/TC_141.xlsx
+++ b/Testdata/TC_141.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4DQAAB+LCAAAAAAAAAPtW1tvG8cV/isLAQFawNTukpQlEaMNKFJ0iIqSINKWnRdjuTuitlrusnuRxDf7JVJip6nrOq1bO2lQp21S23XgtHYixz8mECn5yX+hZ2b2Si5lrmoDjStDkDnnNmfOnDnn2+EKvbvT1rktbNmaacxNiJPCBIcNxVQ1ozU34TrrGfHsxLsSWthRsL4iW3IbOyDMgZZhF3ZsbW5iw3E6BZ7f3t6e3M5NmlaLzwqCyF+sLdaVDdyWM5phO7Kh4IlAS3211oSESmq7hh1ZlR2Zac5NVOvVyRLWlDLQarIht7A1Oe/amoFte8FwNEfDNtG0sOzgUrl2gS1Myk6enRQRP0QPJeddTVeZXEyS0T05mBY3tDaWsoI4kxFmM0KuIYoFQSxMTU3m8zPv+4qBIFqUbaeOrS1NoYS6I7c7VF2YFXKiKIhTU4hPFAJbYQAktKyrq3hLs7Fawrpup4oI721gUXFg1emCKSA+ousZOrkL5yy5s9HQHB2nc+MdroMtrmYazsYZbrU2z7WNMxykTD4Dv6bmRMH3M5xAQhXTwgrE9kTuLuHtZcsLeaOzCNzGhmY53bLcTW3rvI2t5Q4JYDpVCZVhxUUdW875DuQBViFNgCE5losRP4IZKpU1W4HPmuFiVVqXdTuqFGOiNdPatDuygpfgjPPExrahm7IKyehotqMp4aRDDLRimbA9xOV5U1crYNUTTmAElqsGhJhMO2+am6F3SUxEd5XuL+xpW3Z88SE6qm+Y28uG3q27TVuxtCZWy/O+dCIPkcPqaZdc2zHb4EVIQowWoagqX6vxXfgHR3SQicpY0dqyvqJDKG0pB7ZiBFR0HXNdc0qm7rYN2/dsgIrWYF0NvBOsMxijZdhig4TeNKqGL8+CnciKK6ya28Gcwwwaigi5aCv+pg8zBoXLQPM3cZhD94WssqLp0EGiOxKhxnOjvoGxk5gYjINIsayQniTNd5fcdhMOWRNO2had1UZ8yEeQrZDx4JckQJ/J0J+GIBToD/gRsNGCoY6W85kIpovMJYlQxQdICNakz+uysQnUNc3ZWCr6a0ngIBaBkfLDPATnt6PLXUoOohSloaqh6K6KWVmoGus0RYlvbFNHstEQaRFOuoRko9vodqBy21rBgQ9zE9DLC7ZjAVqYkBTTNRyrS+oH4j3RV+nYbtOgE8j62DrrFv6VCyClW3ENpWSq48+msuicNzRnfA9N12JFcXwVGj1SH127jEmloaV/bH0lzZpsK5V428Bt09CU8aMNQSbeqydYiO2fqrE1MDtfY8vr0N1Z8yNnfWw1CxAmtLtU0xRt21Q0mqze8VAj+vyII1PG67KrA7pzoNG2gto7SEZFe3NQJkpC5y3dr4ASwc42gGdFbU8qACEIQJxUzDYh8IBZ1+qIj8oTHKTgBaO1KBstF5BGUFcG6UH9JV2yYcmGTZYTAIuBUpwshPw6xQCPxIrXsksTgRUvE7iIH5BDDdzumJas1yAwWsVLOw81ASCpyc6GN4LepmPFDzIfqgZacc98x18lRpsUWwY58F6ZHCBSIbIWBtNDmZCGyCprcCz1kqxrTYtVVb+VJ/Fgw0KI6NdfsriUcNHfA3hUg+77C9wl+D0ceHSasqLPYAlMCqlUX83PZPOzM9DN6BjRFZdxx7Q1h1uFBRa40oYG4L0EihBJbh72sMAVt1oFrqIZ8JinAbHetR3cLnA5gXNMbmaWI5gZGiQNn9eiXqvlqE1U8fsDXUIZ1hKnxAUAp7TAvD4sGHBCBaksa3o3IscitGgqINZ78If+/ee9va8Of7378tkf+7e/h88HTx/07j18cfPfR19cB2Lvu8e9u4T7YvfG0WcfH/xw8/DxPgxzwtHu45nZ3r2vWJiYRdSQmzqmTjfmZ2aEXB5yOCAhsnE8Bd+qqziUdukSxdzBGHmPlXRQWqiWzi3O01oVEH111q548sTaNd1wWGcrpRPRdOH9LGMiUsOvfd44xo20P4k8QW7huHSUP0qRxeJw/2+H+w9GansBC3GcODs7lRHgJ3s8zINn8TyRE2eTYN5irL8Ewtmo0QEZtMqaSxCnqirlRHjcn5oWxKBPqMFBSBIaZHmWGnKLH9BjpBKDXkEKRMc+kx6OBradgM2OS2TAgtj/17Wjf96KSXnR9ShxK+AchUhkMt4fUNNLqw2uvnx+tbTANRbqJE9CXkSOGT9G2Js9OHTRpKEH8gw3McWZIfaeiJzQWIYlUZn1NHYG/TlnmW6HFZuIQkhNkAyrTpJGQuWhPFYzB0pQyEmQ9nb0918mKXjrKIeoOHrNEmQhZaBhNqNHhLzJ7uyxGvhOzII3WXDNAFkNZyc6DJIcCpzXuQYoaK1OA7opXI50Ko9IHslWTM1wbCk/PSXS5zFvjEBZJPbo/6jahvZJTdOwAX2Agt6T7YUdxzvI0hLi4wTwtCND5zbD59iAwGp2GN4Xdz/r/+nb/qePjna/7n309971Tw/3Pz96+AU7Zf1bj/ofP/Sq+mDhp76Qp2MGKDl646Jw5PRxBAdwP165yRmmwwF84VxagX68cjtijDhKgU5oGeBh4EjchSHRqDLR4yKuBD7E9AIVBiZKpGXlAgmvaZkdTQkneT9DTAHG5SjjZ9VGxrUxZwIy+zmsJC4cKo+r56mwFroyLWTFrMdl3pAlNGU7EvpzutkEoOEz6GXGgEhM63iFUJbOd25xeb64GIowJ5YtFVskDdkH5MNT0kKqtj/yUy1CAS6ASMXVyf3TkNgwK7AcKWa8d5GzXlTJpX/ytUdMApVcy2IgyfC+Oai7HQDWwV3NaAF6ExoB00sM+EbhdTiuluN8GEe40PnibEKgfFqYPBYrUlWbXBoxbLxEYhMOgRe7PYV4eN8OMGi1pcGe8KT0LFiWaSXWn5Dji9UAlkNJ4cOQBzJ0UxmEV8PN8gl+zXs9UH5KyE/HoHylWC1wXUctcFVD1WBtLkHa3nNEjFgyyc2tzCDbMHI/oaFjgHptTJw+KJcE02mHGgnUwXcKxb/t7d0F2H2w/xEMD55+DWi89+TL3q0P+ntPgHJ47f7hP671frN38MOdw3vPT4H56wHm9EubMe5fGdbOj7h/fZ3AfCY/BjBnQqfAfFxgPnwEx0TixyqOht611NA7UeNY6D3s2jjg+87emOCbfa2ZhLt9zgjIfXj7+cHT3YPvv+8/utF7evW/xN3iaNwtXo60lWHcLWbzp7D7FHb/pGC3+BbAbnYH/daj7oHq8z+MuqeyMdS9tgJgecXSoIx1uaIF1UTHAJIrpgn4uXKhwF3ArQJ3zsLY4FawnHhVnt7GMVh77eyYYHtIMAltr2G8ORJs9z/8rvfJjYP9J/0/P+tf34Wy9/LZHizm5bMPKereP/rrVYDcvZtXya34Xz5nHyoX4NfR7+4ffXKHkO/+9uibD04B+GsD4FMZURgHgGdJSRLzbxiAi7ncqwG4J3QKwMcF4OxUck0M59UgHVt2uDrkhqXKJ0Dl6a2NhuprqaF6osaxUH2oJo2B1F9c+WZMpD7w4uEwYB8QGIHbR5tJj9qzo1F79nKkLSWg9unsKWo/Re0/KdSefQtQ+//LZflA+XkjsJ0P35gJKqNZxjp20r1nzofaNXPrxLqw+WlVq/ayrnrBTPfSTxCW0ED0ZXuSKG/yXXuWiEXLAuBFXstN/XK8/zrZqmy0UnrKlkkVyXtZMLv39npFs2znIulW3idGuRRQLjEEe5G8oc0+0PElKef/QQZI8FHzfMxP/2A77O8hTH1Ra2sp39YS/MMfNwLB7HQYxqumSyPSeJbwDiDQiAUomc1fQlNhrzemscayGSptoE9eKba11oaT1rHppoxV3BQyShNnM3lVmMnMYpzLiCL8lpUsSSzyQrJnHMqKhrdTTsL7Gxb+nZL0H+5DkXngNAAA</t>
+          <t>iTYAAB+LCAAAAAAAAAPtW+1v28YZ/1cIAwU2YDJJSX6RcGYhS5YnzLINS4mTfgko8mRzpkiNL7b1rflSu026LsvSLVvSrli6tV2SZUi3pHWaP6awbOdT/oU9d8dXiXJENwWWzYWb8J63u3vuefnxQqO3dzs6t40tWzONuQlxUpjgsKGYqmZszE24TjsjTk+8LaGFXQXrq7Ild7ADwhxoGXZx19bmJjYdp1vk+Z2dncmd3KRpbfBZQRD5S/WlhrKJO3JGM2xHNhQ8EWipr9aakFBZ7dSxI6uyIzPNuYlaozZZxppSAVpdNuQNbE3Ou7ZmYNteMBzN0bBNNC0sO7hcqV9kG5Oyk9OTIuKH6KHkvKvpKpOLSTK6JwfT4qbWwVJWyAoZYTaTFZpCoShMFUVhMjc1846vGAiiJdl2Gtja1hRKaDhyp0vVhVn4vyBMiQLiE4XAVugACa3o6hre1myslrGu26k8wnsHWFIc2HU6Z8LyIrqeobMvYdGSu5tNzdFxWvWqaWEFHHWmuZfxzorl+a/ZXQJuc1OznF5F7qW2dcHG1kqXeCOdqoQqpuGUdGw5F7pwqFiFMweG5FguRvwIZqhU0WwFnjXDxarUlnU7qhRjonXT2rK7soKXIWF5YmPH0E1ZhchyNNvRlHDSIQZatcwuWITJ501drYJVTziBEViuGeBiMu28aW6Fq0tiIhoDNBrgTDuy44sP0VFj09xZMfRew23ZiqW1sFqZ96UTeYhknqdddm3H7MAqQhJitAhFVfl6ne/Bf5Bvg0xUwYrWkfVVHVxpSzmwFSOgkuuYbc0pm7rbMWx/ZQNUtA77auLdYJ/BGK3AERvE9aZRM3x55uxEVlxhzdwJ5hxmUFdEyCVb8Q99mDEoXAGaf4jDHHouZJdVTYd2ED2RCDUeG41NjJ3EwGAcRCpflTQYab637HZakGQtyLRtOquN+JCPIFoh4mFdkgBNI0N/moJQpD+wjoCNFgx1tJzPRDBdZC5JnEL8AAnBnvR5XTa2gLquOZvLJX8vCRzEPDBSfpiHIH+7utyj5MBLURqqGYruqpiVhZrRpiFK1sYOdSQbDZGWINMlJBu9Zq8LZdjWig48zE1AYy7ajgWtf0JSTNdwrB6pH4j3RF+lY7stg04g62PrtC38KxcQR6/qGkrZVMefTWXeuWBozvgrNF2LFcXxVaj3SH107QomlYaW/rH1lTR7sq1U4h0Dd0xDU8b3NjiZrF49w0ZsP6vG1sAsv8aW16G7s+ZHcn1sNQvgIrS7VNOUbNtUNBqsXnqoEX1+RMpUcFt2dYBqDjTajaD2DpJRyd4alImS0AVL9yugRICwDUhYUTuTCkAIgvYmFbNDCDwA0PUG4qPyBAcpeMHYWJKNDReQRlBXBulB/SVdsmnJhk22EwCLgVKcLIT8OsUAj8SK14pLA4EVLxO4iB+QQ03c6ZqWrNfBMVrVCzsPNQEgqcvOpjeC3qZjxXcyH6oGWvGV+Qt/lRhtUmwbJOG9MjlApEJkLwxzhzIhDZFd1iEt9bKsay2LVVW/lSfx4MBCiOjXX7K5lHDRPwN474Lu+wvcI2A8HHh0GrKiz2ABTAqp1FjLz2bzhVnoZnSM6I4ruGvamsOtwQaLXHlTAyReBkXwJDcPZ1jkStsbRa6qGfDOpgGx0bMd3ClyOYFzTG62wBHMDA2Sus9rUa/VctQmqvr9gW6hAnuJU+ICgFM2wLw+LBhwQgWpImt6LyLHPLRkKiDWf/CHo/vP+/tfHv967+WzPx7d/haeD58+6N97+OLmv08+uw7E/jeP+3cJ98XejZNPPjz87ubx4wMY5oSTvcezhf69L5mbmEXUlFs6potuzs/OCrk8xHBAQuTgeAq+VVdxKO3yZYq5gzHy3hHpoLxQKy8uzdNaFRB9ddauePL62TPdcNhgO6UT0XDh/ShjIlLTr33eOMaNtD+JvA5u47h0lD9Kkfni+OBvxwcPRmp7DgtxnFgoTGUE+MmeDvOygpgncmIhCeYtxfpLIJyNGh2QQWusuQR+qqlSTiTv7TOCGPQJNUiEJKFBlmepKW/wA3qMVGbQKwiB6Nhn0uRoYtsJ2CxdIgPmxKN/XTv5x62YlOddjxK3AoujEIlMxvsDanp5rck1Vi6slRe45kKDxEnIi8gx46cIe7MHSRcNGpqQP+MmpjgzxN4TkQyNRVgSlVlPY2dwPYuW6XZZsYkohNQEybDqJGkkVB7KYzVzoASFnARp70R//3mSgrePSoiKpbc4eF3n6vCevhlEIWWgYTajR4S8ye7ssxr4VsyCN1lwzQBRDbkTHQZBDgXO61wDFLTeoA7dEq5EOpVHJK9kq6ZmOLaUn5kS6fuYN0agLBJ79G9U60D7pKap24A+QEE/l+2FXcdLZGkZ8XECrLQrQ+c2w/fYgMBqdujeF3c/OfrT10cfPzrZ+6r/wRf96x8fH3x68vAzlmVHtx4dffjQq+qDhZ+uhbwdM0DJ0RsXhSPZxxEcwH3/7k3OMB0O4Avn0gr0/bu3I8bIQinQCS0DPAwWEl/CkGhUmehxkaUEa4jpBSoMTJRJy8oFEl7TMruaEk7yToaYAozLUcZPas2Ma2POBGT2U9hJXDhUHlfPU2EtdHVGyIpZj8tWQ7bQku2I6xd1swVAw2fQy4wBkZjW6QqhLJ1vcWllvrQUirBFrFgqtkgYsgdUs32A6odXhAJcAI6Kq5M7pyGxYRbynyIFjPcub9olldzaJ191xCRQ2bUsBowM7+q/4XYBTAf3M6MF6O1nBEAvM7AbhdThuFaJ82Ec4UK3i7MJgfJpMfJYrDDVbHJRxPDwMvFNOARe7MYU/OFd7zM4ta3BOfCk3CxYlmkl1pyQ44vVAYpDGeFDlwcyPJmSwXY1PCyf4Ne51wPfp4T8TAy+V0u1Itdz1CJXM1QN9uYSdO29O8SIZZPc1soMpg2j9TMaOgWc18fE5oNySdCcdqWR4BzWTuH31/39uwC1Dw8+gOHh068AgfeffN6/9d7R/hOgHF+7f/z3a/3f7B9+d+f43vNzMP56wHhWEPLj3LkyfJ0fcef6OsH4bH4MMM6EzsH4uGB8OAXHRN+nKo6G2/XUcDtR41S4Pby0cQD3nf0xAfdafZ7rGElY2+eMgNnHt58fPt07/Pbbo0c3+k+v/kCsLY7G2uKVSFsZxtpiNn8Otc+h9hsFtcU3FGqzu+b/eaQ9UHH+i5H2VDaGtNdXASCvWhqUrh5XsqCC6BiAcdU0ATNXLxa5i3ijyC1aGBvcKpYTr8TT2zgFX69PjwmwhwSTEPY6xlsjAfbR+9/0P7pxePDk6M/Pjq7vQal7+WwfNvPy2fsUaR+c/PUqwOz+zavk9vsvn7KH6kX44+R3908+ukPId3978s/3zkH3awPdUxlRGAd0Z0lJEvM/MugWc7lXg25P6Bx0jwu6WVZyLQz5apAuLTtcA2LDUuUzIPH01kbD8/XU8DxR41R4PlSTxkDn/RtfjInO6XsryaM5kfbpIZA+IDACq482kx6pZ0cj9eyVSFtKQOoz2XOkfo7U3yiknn1Dkfr/y6X4QMn5UaA6H34NE1RDs4J17KT+INzXrpvbZ9aFw0+rWrNXdNVzZroPegK3hAaiX8WTQEm7mJJlAXQiH9Cm/ox9STO2aul2L8litpBvF3BbFfK4pbam2zlhuoCnszm5jduzAB6pUfJ9FzHRAXxNvo5KNwkAxrh6+CXbmmxspLTGHEwVydde4CnvH95pZQ/GqKpZtnOJtErviVEuB5TLDD5fIp+Bswc6vizlpqYYBST46Gx8bNl+hXHYb1CY+pLW0VJ+Eib4VShuBOKg22UAM+2JQtdbxrsAfyMWoF63fgkdjX1DmcYaSyso84G+b6vhtlKb433lVeCTyDqb9oIK0Ozs2vT3ETT9ByyAYq+zmqgZtrax6aQ912yhkMPTOJvJthUlk4dBBvpxK6PK7QLg1nZOJUU+MA7tQcM7KSchTUWzXVlPr8cP/EKZ9B/hp/JPiTYAAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.5631136150295863</v>
+        <v>-0.5631136150295859</v>
       </c>
       <c r="C20" s="2">
         <v>0.5533161314864108</v>
@@ -4136,4 +4136,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>356</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
+          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
+          <SeriesId>310905701</SeriesId>
+          <Code>SR4824985</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>3</InitCol>
+          <EndRow>356</EndRow>
+          <EndCol>3</EndCol>
+          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
+          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
+          <SeriesId>310908401</SeriesId>
+          <Code>SR4825047</Code>
+          <Order>1</Order>
+        </MetadataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>4</InitCol>
+          <EndRow>356</EndRow>
+          <EndCol>4</EndCol>
+          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
+          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
+          <SeriesId>310913301</SeriesId>
+          <Code>SR4825052</Code>
+          <Order>2</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1368EB-C6B9-4F9C-9955-15F7EB807A48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_141.xlsx
+++ b/Testdata/TC_141.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>iTYAAB+LCAAAAAAAAAPtW+1v28YZ/1cIAwU2YDJJSX6RcGYhS5YnzLINS4mTfgko8mRzpkiNL7b1rflSu026LsvSLVvSrli6tV2SZUi3pHWaP6awbOdT/oU9d8dXiXJENwWWzYWb8J63u3vuefnxQqO3dzs6t40tWzONuQlxUpjgsKGYqmZszE24TjsjTk+8LaGFXQXrq7Ild7ADwhxoGXZx19bmJjYdp1vk+Z2dncmd3KRpbfBZQRD5S/WlhrKJO3JGM2xHNhQ8EWipr9aakFBZ7dSxI6uyIzPNuYlaozZZxppSAVpdNuQNbE3Ou7ZmYNteMBzN0bBNNC0sO7hcqV9kG5Oyk9OTIuKH6KHkvKvpKpOLSTK6JwfT4qbWwVJWyAoZYTaTFZpCoShMFUVhMjc1846vGAiiJdl2Gtja1hRKaDhyp0vVhVn4vyBMiQLiE4XAVugACa3o6hre1myslrGu26k8wnsHWFIc2HU6Z8LyIrqeobMvYdGSu5tNzdFxWvWqaWEFHHWmuZfxzorl+a/ZXQJuc1OznF5F7qW2dcHG1kqXeCOdqoQqpuGUdGw5F7pwqFiFMweG5FguRvwIZqhU0WwFnjXDxarUlnU7qhRjonXT2rK7soKXIWF5YmPH0E1ZhchyNNvRlHDSIQZatcwuWITJ501drYJVTziBEViuGeBiMu28aW6Fq0tiIhoDNBrgTDuy44sP0VFj09xZMfRew23ZiqW1sFqZ96UTeYhknqdddm3H7MAqQhJitAhFVfl6ne/Bf5Bvg0xUwYrWkfVVHVxpSzmwFSOgkuuYbc0pm7rbMWx/ZQNUtA77auLdYJ/BGK3AERvE9aZRM3x55uxEVlxhzdwJ5hxmUFdEyCVb8Q99mDEoXAGaf4jDHHouZJdVTYd2ED2RCDUeG41NjJ3EwGAcRCpflTQYab637HZakGQtyLRtOquN+JCPIFoh4mFdkgBNI0N/moJQpD+wjoCNFgx1tJzPRDBdZC5JnEL8AAnBnvR5XTa2gLquOZvLJX8vCRzEPDBSfpiHIH+7utyj5MBLURqqGYruqpiVhZrRpiFK1sYOdSQbDZGWINMlJBu9Zq8LZdjWig48zE1AYy7ajgWtf0JSTNdwrB6pH4j3RF+lY7stg04g62PrtC38KxcQR6/qGkrZVMefTWXeuWBozvgrNF2LFcXxVaj3SH107QomlYaW/rH1lTR7sq1U4h0Dd0xDU8b3NjiZrF49w0ZsP6vG1sAsv8aW16G7s+ZHcn1sNQvgIrS7VNOUbNtUNBqsXnqoEX1+RMpUcFt2dYBqDjTajaD2DpJRyd4alImS0AVL9yugRICwDUhYUTuTCkAIgvYmFbNDCDwA0PUG4qPyBAcpeMHYWJKNDReQRlBXBulB/SVdsmnJhk22EwCLgVKcLIT8OsUAj8SK14pLA4EVLxO4iB+QQ03c6ZqWrNfBMVrVCzsPNQEgqcvOpjeC3qZjxXcyH6oGWvGV+Qt/lRhtUmwbJOG9MjlApEJkLwxzhzIhDZFd1iEt9bKsay2LVVW/lSfx4MBCiOjXX7K5lHDRPwN474Lu+wvcI2A8HHh0GrKiz2ABTAqp1FjLz2bzhVnoZnSM6I4ruGvamsOtwQaLXHlTAyReBkXwJDcPZ1jkStsbRa6qGfDOpgGx0bMd3ClyOYFzTG62wBHMDA2Sus9rUa/VctQmqvr9gW6hAnuJU+ICgFM2wLw+LBhwQgWpImt6LyLHPLRkKiDWf/CHo/vP+/tfHv967+WzPx7d/haeD58+6N97+OLmv08+uw7E/jeP+3cJ98XejZNPPjz87ubx4wMY5oSTvcezhf69L5mbmEXUlFs6potuzs/OCrk8xHBAQuTgeAq+VVdxKO3yZYq5gzHy3hHpoLxQKy8uzdNaFRB9ddauePL62TPdcNhgO6UT0XDh/ShjIlLTr33eOMaNtD+JvA5u47h0lD9Kkfni+OBvxwcPRmp7DgtxnFgoTGUE+MmeDvOygpgncmIhCeYtxfpLIJyNGh2QQWusuQR+qqlSTiTv7TOCGPQJNUiEJKFBlmepKW/wA3qMVGbQKwiB6Nhn0uRoYtsJ2CxdIgPmxKN/XTv5x62YlOddjxK3AoujEIlMxvsDanp5rck1Vi6slRe45kKDxEnIi8gx46cIe7MHSRcNGpqQP+MmpjgzxN4TkQyNRVgSlVlPY2dwPYuW6XZZsYkohNQEybDqJGkkVB7KYzVzoASFnARp70R//3mSgrePSoiKpbc4eF3n6vCevhlEIWWgYTajR4S8ye7ssxr4VsyCN1lwzQBRDbkTHQZBDgXO61wDFLTeoA7dEq5EOpVHJK9kq6ZmOLaUn5kS6fuYN0agLBJ79G9U60D7pKap24A+QEE/l+2FXcdLZGkZ8XECrLQrQ+c2w/fYgMBqdujeF3c/OfrT10cfPzrZ+6r/wRf96x8fH3x68vAzlmVHtx4dffjQq+qDhZ+uhbwdM0DJ0RsXhSPZxxEcwH3/7k3OMB0O4Avn0gr0/bu3I8bIQinQCS0DPAwWEl/CkGhUmehxkaUEa4jpBSoMTJRJy8oFEl7TMruaEk7yToaYAozLUcZPas2Ma2POBGT2U9hJXDhUHlfPU2EtdHVGyIpZj8tWQ7bQku2I6xd1swVAw2fQy4wBkZjW6QqhLJ1vcWllvrQUirBFrFgqtkgYsgdUs32A6odXhAJcAI6Kq5M7pyGxYRbynyIFjPcub9olldzaJ191xCRQ2bUsBowM7+q/4XYBTAf3M6MF6O1nBEAvM7AbhdThuFaJ82Ec4UK3i7MJgfJpMfJYrDDVbHJRxPDwMvFNOARe7MYU/OFd7zM4ta3BOfCk3CxYlmkl1pyQ44vVAYpDGeFDlwcyPJmSwXY1PCyf4Ne51wPfp4T8TAy+V0u1Itdz1CJXM1QN9uYSdO29O8SIZZPc1soMpg2j9TMaOgWc18fE5oNySdCcdqWR4BzWTuH31/39uwC1Dw8+gOHh068AgfeffN6/9d7R/hOgHF+7f/z3a/3f7B9+d+f43vNzMP56wHhWEPLj3LkyfJ0fcef6OsH4bH4MMM6EzsH4uGB8OAXHRN+nKo6G2/XUcDtR41S4Pby0cQD3nf0xAfdafZ7rGElY2+eMgNnHt58fPt07/Pbbo0c3+k+v/kCsLY7G2uKVSFsZxtpiNn8Otc+h9hsFtcU3FGqzu+b/eaQ9UHH+i5H2VDaGtNdXASCvWhqUrh5XsqCC6BiAcdU0ATNXLxa5i3ijyC1aGBvcKpYTr8TT2zgFX69PjwmwhwSTEPY6xlsjAfbR+9/0P7pxePDk6M/Pjq7vQal7+WwfNvPy2fsUaR+c/PUqwOz+zavk9vsvn7KH6kX44+R3908+ukPId3978s/3zkH3awPdUxlRGAd0Z0lJEvM/MugWc7lXg25P6Bx0jwu6WVZyLQz5apAuLTtcA2LDUuUzIPH01kbD8/XU8DxR41R4PlSTxkDn/RtfjInO6XsryaM5kfbpIZA+IDACq482kx6pZ0cj9eyVSFtKQOoz2XOkfo7U3yiknn1Dkfr/y6X4QMn5UaA6H34NE1RDs4J17KT+INzXrpvbZ9aFw0+rWrNXdNVzZroPegK3hAaiX8WTQEm7mJJlAXQiH9Cm/ox9STO2aul2L8litpBvF3BbFfK4pbam2zlhuoCnszm5jduzAB6pUfJ9FzHRAXxNvo5KNwkAxrh6+CXbmmxspLTGHEwVydde4CnvH95pZQ/GqKpZtnOJtErviVEuB5TLDD5fIp+Bswc6vizlpqYYBST46Gx8bNl+hXHYb1CY+pLW0VJ+Eib4VShuBOKg22UAM+2JQtdbxrsAfyMWoF63fgkdjX1DmcYaSyso84G+b6vhtlKb433lVeCTyDqb9oIK0Ozs2vT3ETT9ByyAYq+zmqgZtrax6aQ912yhkMPTOJvJthUlk4dBBvpxK6PK7QLg1nZOJUU+MA7tQcM7KSchTUWzXVlPr8cP/EKZ9B/hp/JPiTYAAA==</t>
+          <t>4DQAAB+LCAAAAAAAAAPtW1tvG8cV/isLAQFawNTukpQlEaMNKFJ0iIqSINKWnRdjuTuitlrusnuRxDf7JVJip6nrOq1bO2lQp21S23XgtHYixz8mECn5yX+hZ2b2Si5lrmoDjStDkDnnNmfOnDnn2+EKvbvT1rktbNmaacxNiJPCBIcNxVQ1ozU34TrrGfHsxLsSWthRsL4iW3IbOyDMgZZhF3ZsbW5iw3E6BZ7f3t6e3M5NmlaLzwqCyF+sLdaVDdyWM5phO7Kh4IlAS3211oSESmq7hh1ZlR2Zac5NVOvVyRLWlDLQarIht7A1Oe/amoFte8FwNEfDNtG0sOzgUrl2gS1Myk6enRQRP0QPJeddTVeZXEyS0T05mBY3tDaWsoI4kxFmM0KuIYoFQSxMTU3m8zPv+4qBIFqUbaeOrS1NoYS6I7c7VF2YFXKiKIhTU4hPFAJbYQAktKyrq3hLs7Fawrpup4oI721gUXFg1emCKSA+ousZOrkL5yy5s9HQHB2nc+MdroMtrmYazsYZbrU2z7WNMxykTD4Dv6bmRMH3M5xAQhXTwgrE9kTuLuHtZcsLeaOzCNzGhmY53bLcTW3rvI2t5Q4JYDpVCZVhxUUdW875DuQBViFNgCE5losRP4IZKpU1W4HPmuFiVVqXdTuqFGOiNdPatDuygpfgjPPExrahm7IKyehotqMp4aRDDLRimbA9xOV5U1crYNUTTmAElqsGhJhMO2+am6F3SUxEd5XuL+xpW3Z88SE6qm+Y28uG3q27TVuxtCZWy/O+dCIPkcPqaZdc2zHb4EVIQowWoagqX6vxXfgHR3SQicpY0dqyvqJDKG0pB7ZiBFR0HXNdc0qm7rYN2/dsgIrWYF0NvBOsMxijZdhig4TeNKqGL8+CnciKK6ya28Gcwwwaigi5aCv+pg8zBoXLQPM3cZhD94WssqLp0EGiOxKhxnOjvoGxk5gYjINIsayQniTNd5fcdhMOWRNO2had1UZ8yEeQrZDx4JckQJ/J0J+GIBToD/gRsNGCoY6W85kIpovMJYlQxQdICNakz+uysQnUNc3ZWCr6a0ngIBaBkfLDPATnt6PLXUoOohSloaqh6K6KWVmoGus0RYlvbFNHstEQaRFOuoRko9vodqBy21rBgQ9zE9DLC7ZjAVqYkBTTNRyrS+oH4j3RV+nYbtOgE8j62DrrFv6VCyClW3ENpWSq48+msuicNzRnfA9N12JFcXwVGj1SH127jEmloaV/bH0lzZpsK5V428Bt09CU8aMNQSbeqydYiO2fqrE1MDtfY8vr0N1Z8yNnfWw1CxAmtLtU0xRt21Q0mqze8VAj+vyII1PG67KrA7pzoNG2gto7SEZFe3NQJkpC5y3dr4ASwc42gGdFbU8qACEIQJxUzDYh8IBZ1+qIj8oTHKTgBaO1KBstF5BGUFcG6UH9JV2yYcmGTZYTAIuBUpwshPw6xQCPxIrXsksTgRUvE7iIH5BDDdzumJas1yAwWsVLOw81ASCpyc6GN4LepmPFDzIfqgZacc98x18lRpsUWwY58F6ZHCBSIbIWBtNDmZCGyCprcCz1kqxrTYtVVb+VJ/Fgw0KI6NdfsriUcNHfA3hUg+77C9wl+D0ceHSasqLPYAlMCqlUX83PZPOzM9DN6BjRFZdxx7Q1h1uFBRa40oYG4L0EihBJbh72sMAVt1oFrqIZ8JinAbHetR3cLnA5gXNMbmaWI5gZGiQNn9eiXqvlqE1U8fsDXUIZ1hKnxAUAp7TAvD4sGHBCBaksa3o3IscitGgqINZ78If+/ee9va8Of7378tkf+7e/h88HTx/07j18cfPfR19cB2Lvu8e9u4T7YvfG0WcfH/xw8/DxPgxzwtHu45nZ3r2vWJiYRdSQmzqmTjfmZ2aEXB5yOCAhsnE8Bd+qqziUdukSxdzBGHmPlXRQWqiWzi3O01oVEH111q548sTaNd1wWGcrpRPRdOH9LGMiUsOvfd44xo20P4k8QW7huHSUP0qRxeJw/2+H+w9GansBC3GcODs7lRHgJ3s8zINn8TyRE2eTYN5irL8Ewtmo0QEZtMqaSxCnqirlRHjcn5oWxKBPqMFBSBIaZHmWGnKLH9BjpBKDXkEKRMc+kx6OBradgM2OS2TAgtj/17Wjf96KSXnR9ShxK+AchUhkMt4fUNNLqw2uvnx+tbTANRbqJE9CXkSOGT9G2Js9OHTRpKEH8gw3McWZIfaeiJzQWIYlUZn1NHYG/TlnmW6HFZuIQkhNkAyrTpJGQuWhPFYzB0pQyEmQ9nb0918mKXjrKIeoOHrNEmQhZaBhNqNHhLzJ7uyxGvhOzII3WXDNAFkNZyc6DJIcCpzXuQYoaK1OA7opXI50Ko9IHslWTM1wbCk/PSXS5zFvjEBZJPbo/6jahvZJTdOwAX2Agt6T7YUdxzvI0hLi4wTwtCND5zbD59iAwGp2GN4Xdz/r/+nb/qePjna/7n309971Tw/3Pz96+AU7Zf1bj/ofP/Sq+mDhp76Qp2MGKDl646Jw5PRxBAdwP165yRmmwwF84VxagX68cjtijDhKgU5oGeBh4EjchSHRqDLR4yKuBD7E9AIVBiZKpGXlAgmvaZkdTQkneT9DTAHG5SjjZ9VGxrUxZwIy+zmsJC4cKo+r56mwFroyLWTFrMdl3pAlNGU7EvpzutkEoOEz6GXGgEhM63iFUJbOd25xeb64GIowJ5YtFVskDdkH5MNT0kKqtj/yUy1CAS6ASMXVyf3TkNgwK7AcKWa8d5GzXlTJpX/ytUdMApVcy2IgyfC+Oai7HQDWwV3NaAF6ExoB00sM+EbhdTiuluN8GEe40PnibEKgfFqYPBYrUlWbXBoxbLxEYhMOgRe7PYV4eN8OMGi1pcGe8KT0LFiWaSXWn5Dji9UAlkNJ4cOQBzJ0UxmEV8PN8gl+zXs9UH5KyE/HoHylWC1wXUctcFVD1WBtLkHa3nNEjFgyyc2tzCDbMHI/oaFjgHptTJw+KJcE02mHGgnUwXcKxb/t7d0F2H2w/xEMD55+DWi89+TL3q0P+ntPgHJ47f7hP671frN38MOdw3vPT4H56wHm9EubMe5fGdbOj7h/fZ3AfCY/BjBnQqfAfFxgPnwEx0TixyqOht611NA7UeNY6D3s2jjg+87emOCbfa2ZhLt9zgjIfXj7+cHT3YPvv+8/utF7evW/xN3iaNwtXo60lWHcLWbzp7D7FHb/pGC3+BbAbnYH/daj7oHq8z+MuqeyMdS9tgJgecXSoIx1uaIF1UTHAJIrpgn4uXKhwF3ArQJ3zsLY4FawnHhVnt7GMVh77eyYYHtIMAltr2G8ORJs9z/8rvfJjYP9J/0/P+tf34Wy9/LZHizm5bMPKereP/rrVYDcvZtXya34Xz5nHyoX4NfR7+4ffXKHkO/+9uibD04B+GsD4FMZURgHgGdJSRLzbxiAi7ncqwG4J3QKwMcF4OxUck0M59UgHVt2uDrkhqXKJ0Dl6a2NhuprqaF6osaxUH2oJo2B1F9c+WZMpD7w4uEwYB8QGIHbR5tJj9qzo1F79nKkLSWg9unsKWo/Re0/KdSefQtQ+//LZflA+XkjsJ0P35gJKqNZxjp20r1nzofaNXPrxLqw+WlVq/ayrnrBTPfSTxCW0ED0ZXuSKG/yXXuWiEXLAuBFXstN/XK8/zrZqmy0UnrKlkkVyXtZMLv39npFs2znIulW3idGuRRQLjEEe5G8oc0+0PElKef/QQZI8FHzfMxP/2A77O8hTH1Ra2sp39YS/MMfNwLB7HQYxqumSyPSeJbwDiDQiAUomc1fQlNhrzemscayGSptoE9eKba11oaT1rHppoxV3BQyShNnM3lVmMnMYpzLiCL8lpUsSSzyQrJnHMqKhrdTTsL7Gxb+nZL0H+5DkXngNAAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -603,7 +603,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.5631136150295859</v>
+        <v>-0.5631136150295863</v>
       </c>
       <c r="C20" s="2">
         <v>0.5533161314864108</v>
@@ -4136,59 +4136,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>356</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</Name>
-          <DisplayName>Deposit Rate: Chile Central Bank: Avg: Financial System: 30 to 89 Days</DisplayName>
-          <SeriesId>310905701</SeriesId>
-          <Code>SR4824985</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>3</InitCol>
-          <EndRow>356</EndRow>
-          <EndCol>3</EndCol>
-          <Name>FAI: ytd: Individual Business: Individual Cooperative</Name>
-          <DisplayName>FAI: ytd: Individual Business: Individual Cooperative</DisplayName>
-          <SeriesId>310908401</SeriesId>
-          <Code>SR4825047</Code>
-          <Order>1</Order>
-        </MetadataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>4</InitCol>
-          <EndRow>356</EndRow>
-          <EndCol>4</EndCol>
-          <Name>WPI: Primary Articles: Food: FV: Veg: Green Peas</Name>
-          <DisplayName>WPI: Primary Articles: Food: FV: Veg: Green Peas</DisplayName>
-          <SeriesId>310913301</SeriesId>
-          <Code>SR4825052</Code>
-          <Order>2</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD1368EB-C6B9-4F9C-9955-15F7EB807A48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>